--- a/compañias.xlsx
+++ b/compañias.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Compañía</t>
   </si>
@@ -38,22 +38,10 @@
     <t>Career Opportunities</t>
   </si>
   <si>
-    <t>Boston Consulting Group</t>
-  </si>
-  <si>
     <t>NoviCap</t>
   </si>
   <si>
     <t>Typeform</t>
-  </si>
-  <si>
-    <t>HomeAway</t>
-  </si>
-  <si>
-    <t>King</t>
-  </si>
-  <si>
-    <t>Yahoo</t>
   </si>
 </sst>
 </file>
@@ -133,7 +121,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>1000.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.199999809265137</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.099999904632568</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.699999809265137</v>
       </c>
     </row>
     <row r="3">
@@ -141,7 +147,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>13.0</v>
+        <v>22.0</v>
       </c>
       <c r="C3" t="n">
         <v>4.800000190734863</v>
@@ -150,120 +156,16 @@
         <v>4.800000190734863</v>
       </c>
       <c r="E3" t="n">
-        <v>4.199999809265137</v>
+        <v>4.699999809265137</v>
       </c>
       <c r="F3" t="n">
-        <v>4.800000190734863</v>
+        <v>4.400000095367432</v>
       </c>
       <c r="G3" t="n">
-        <v>4.099999904632568</v>
+        <v>4.300000190734863</v>
       </c>
       <c r="H3" t="n">
         <v>4.699999809265137</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4.800000190734863</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.800000190734863</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4.699999809265137</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4.400000095367432</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.300000190734863</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.699999809265137</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="n">
-        <v>276.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4.300000190734863</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.400000095367432</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4.199999809265137</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3.799999952316284</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4.199999809265137</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.799999952316284</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4.099999904632568</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.400000095367432</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4.400000095367432</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3.299999952316284</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4.099999904632568</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2700.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.5999999046325684</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.700000047683716</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.700000047683716</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3.799999952316284</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.200000047683716</v>
       </c>
     </row>
   </sheetData>
